--- a/server/target/classes/inputs/t2.xlsx
+++ b/server/target/classes/inputs/t2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finn/repo/meeting-scheduler/src/main/resources/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80093EB-FB00-5941-BA95-7872881A6F7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBB9C77-921F-9545-A543-F62FACF758A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17700" yWindow="460" windowWidth="15740" windowHeight="27360" activeTab="1" xr2:uid="{B79D25B7-5550-B540-A36A-E2C0BE443EC4}"/>
   </bookViews>
@@ -2717,7 +2717,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
